--- a/Data/E1.xlsx
+++ b/Data/E1.xlsx
@@ -142,12 +142,6 @@
     <t>GJ input / GJ output</t>
   </si>
   <si>
-    <t>Load/l</t>
-  </si>
-  <si>
-    <t>l1</t>
-  </si>
-  <si>
     <t>Load/Load</t>
   </si>
   <si>
@@ -158,6 +152,12 @@
   </si>
   <si>
     <t>OtherMC/OtherMC</t>
+  </si>
+  <si>
+    <t>Load/c</t>
+  </si>
+  <si>
+    <t>c1</t>
   </si>
 </sst>
 </file>
@@ -494,17 +494,17 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -512,7 +512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -520,7 +520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -528,7 +528,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -536,7 +536,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -544,7 +544,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -552,7 +552,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -574,17 +574,17 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.15234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.69140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.69140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.53515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.15234375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="25.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -607,7 +607,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -630,7 +630,7 @@
         <v>35.513338652552946</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -647,15 +647,15 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1">
         <v>6.9963568377391443</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -691,27 +691,27 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.53515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.61328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -730,12 +730,12 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.53515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -755,7 +755,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -795,9 +795,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -848,15 +848,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.15234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.3046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.53515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.15234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -864,13 +864,13 @@
         <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -885,7 +885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -900,7 +900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -915,7 +915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -930,7 +930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -959,13 +959,13 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.15234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -973,7 +973,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -981,7 +981,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -989,7 +989,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -997,7 +997,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>

--- a/Data/E1.xlsx
+++ b/Data/E1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
@@ -570,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,7 +727,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
